--- a/lead-frontend/src/components/lead_upload_excel_format.xlsx
+++ b/lead-frontend/src/components/lead_upload_excel_format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -27,31 +27,25 @@
     <t>phone</t>
   </si>
   <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>contacted_date</t>
-  </si>
-  <si>
-    <t>next_contact_date</t>
-  </si>
-  <si>
-    <t>Interested</t>
-  </si>
-  <si>
-    <t>Not Interested</t>
-  </si>
-  <si>
-    <t>Rahul Reddy</t>
-  </si>
-  <si>
-    <t>Sumanth</t>
-  </si>
-  <si>
-    <t>sumanth@gmail.com</t>
-  </si>
-  <si>
-    <t>rahulreddy123@gmail.com</t>
+    <t>counsellor_id</t>
+  </si>
+  <si>
+    <t>venkat@gmail.com</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>rahul@gmail.com</t>
+  </si>
+  <si>
+    <t>praveenkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>Praveen Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venkat </t>
   </si>
 </sst>
 </file>
@@ -67,17 +61,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,22 +96,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="B1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,75 +417,77 @@
     <col min="3" max="3" width="21.26953125" customWidth="1"/>
     <col min="4" max="4" width="18.453125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>9999999999</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>9090909090</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9898989898</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45536</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9876543210</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45537</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45547</v>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>8888888888</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
